--- a/patients_data.xlsx
+++ b/patients_data.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,8 +489,10 @@
       <c r="E2" t="n">
         <v>70.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>1234567890</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -513,8 +515,10 @@
       <c r="E3" t="n">
         <v>65.2</v>
       </c>
-      <c r="F3" t="n">
-        <v>9876543210</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9876543210</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -537,63 +541,9 @@
       <c r="E4" t="n">
         <v>80</v>
       </c>
-      <c r="F4" t="n">
-        <v>5555555555</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice Brown</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1992-07-21</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>55</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3333333333</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bob White</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1983-02-11</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4444444444</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5555555555</t>
         </is>
       </c>
     </row>
